--- a/output/1Y_P3_KFSDIV.xlsx
+++ b/output/1Y_P3_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>8.9413</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="F3" s="1">
-        <v>1118.4056</v>
+        <v>1116.1711</v>
       </c>
       <c r="H3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08459999999999999</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>8.9801</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2331.3796</v>
+        <v>2326.7223</v>
       </c>
       <c r="F4" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="H4" s="1">
-        <v>20936.0217</v>
+        <v>20852.3175</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20936.0217</v>
+        <v>20852.3175</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.5786</v>
+        <v>8.595800000000001</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0043</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>8.6477</v>
       </c>
       <c r="C5" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D5" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3444.9529</v>
+        <v>3438.068</v>
       </c>
       <c r="F5" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="H5" s="1">
-        <v>29790.9193</v>
+        <v>29671.9019</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29790.9193</v>
+        <v>29671.9019</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>8.708399999999999</v>
+        <v>8.7258</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>1049.1208</v>
+        <v>1047.025</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8950.879199999999</v>
+        <v>-8952.975</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.037</v>
+        <v>-0.0383</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4601.3298</v>
+        <v>4592.1361</v>
       </c>
       <c r="F6" s="1">
-        <v>1058.757</v>
+        <v>1056.6096</v>
       </c>
       <c r="H6" s="1">
-        <v>44029.6643</v>
+        <v>43853.981</v>
       </c>
       <c r="I6" s="1">
-        <v>1049.1208</v>
+        <v>1047.025</v>
       </c>
       <c r="J6" s="1">
-        <v>45078.7851</v>
+        <v>44901.006</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>8.693099999999999</v>
+        <v>8.7105</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10131.1401</v>
+        <v>-10130.8781</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1329</v>
+        <v>0.1318</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E7" s="1">
-        <v>5660.0868</v>
+        <v>5648.7456</v>
       </c>
       <c r="F7" s="1">
-        <v>1074.4204</v>
+        <v>1072.2435</v>
       </c>
       <c r="H7" s="1">
-        <v>53371.2223</v>
+        <v>53157.5207</v>
       </c>
       <c r="I7" s="1">
-        <v>917.9807</v>
+        <v>916.1469</v>
       </c>
       <c r="J7" s="1">
-        <v>54289.203</v>
+        <v>54073.6676</v>
       </c>
       <c r="K7" s="1">
-        <v>50131.1401</v>
+        <v>50130.8781</v>
       </c>
       <c r="L7" s="1">
-        <v>8.856999999999999</v>
+        <v>8.874700000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10131.1401</v>
+        <v>-10130.8781</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0143</v>
+        <v>-0.0151</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D8" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E8" s="1">
-        <v>6734.5072</v>
+        <v>6720.9891</v>
       </c>
       <c r="F8" s="1">
-        <v>1054.8876</v>
+        <v>1052.7447</v>
       </c>
       <c r="H8" s="1">
-        <v>64677.5339</v>
+        <v>64419.3365</v>
       </c>
       <c r="I8" s="1">
-        <v>786.8406</v>
+        <v>785.2688000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>65464.3745</v>
+        <v>65204.6052</v>
       </c>
       <c r="K8" s="1">
-        <v>60262.2802</v>
+        <v>60261.7563</v>
       </c>
       <c r="L8" s="1">
-        <v>8.9483</v>
+        <v>8.966200000000001</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10131.1401</v>
+        <v>-10130.8781</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0183</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.3595</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E9" s="1">
-        <v>7789.3948</v>
+        <v>7773.7338</v>
       </c>
       <c r="F9" s="1">
-        <v>977.9565</v>
+        <v>975.9716</v>
       </c>
       <c r="H9" s="1">
-        <v>80694.2352</v>
+        <v>80371.07919999999</v>
       </c>
       <c r="I9" s="1">
-        <v>655.7005</v>
+        <v>654.3905999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>81349.9357</v>
+        <v>81025.4699</v>
       </c>
       <c r="K9" s="1">
-        <v>70393.4203</v>
+        <v>70392.6344</v>
       </c>
       <c r="L9" s="1">
-        <v>9.037100000000001</v>
+        <v>9.055199999999999</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10131.1401</v>
+        <v>-10130.8781</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.078</v>
+        <v>0.0774</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.0875</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E10" s="1">
-        <v>8767.3513</v>
+        <v>8749.705400000001</v>
       </c>
       <c r="F10" s="1">
-        <v>1004.3262</v>
+        <v>1002.2931</v>
       </c>
       <c r="H10" s="1">
-        <v>88440.65579999999</v>
+        <v>88085.90949999999</v>
       </c>
       <c r="I10" s="1">
-        <v>524.5604</v>
+        <v>523.5125</v>
       </c>
       <c r="J10" s="1">
-        <v>88965.2162</v>
+        <v>88609.42200000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80524.5604</v>
+        <v>80523.5125</v>
       </c>
       <c r="L10" s="1">
-        <v>9.1846</v>
+        <v>9.202999999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10131.1401</v>
+        <v>-10130.8781</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0261</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>10.1692</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E11" s="1">
-        <v>9771.6774</v>
+        <v>9751.9985</v>
       </c>
       <c r="F11" s="1">
-        <v>996.2573</v>
+        <v>994.2371000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>99370.1419</v>
+        <v>98972.05809999999</v>
       </c>
       <c r="I11" s="1">
-        <v>393.4203</v>
+        <v>392.6344</v>
       </c>
       <c r="J11" s="1">
-        <v>99763.5622</v>
+        <v>99364.6925</v>
       </c>
       <c r="K11" s="1">
-        <v>90655.70050000001</v>
+        <v>90654.3906</v>
       </c>
       <c r="L11" s="1">
-        <v>9.2774</v>
+        <v>9.295999999999999</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>2367.1848</v>
+        <v>2362.4205</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7763.9553</v>
+        <v>-7768.4577</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0081</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.0872</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E12" s="1">
-        <v>10767.9347</v>
+        <v>10746.2356</v>
       </c>
       <c r="F12" s="1">
-        <v>1020.5221</v>
+        <v>1018.2448</v>
       </c>
       <c r="H12" s="1">
-        <v>119386.2461</v>
+        <v>118907.0972</v>
       </c>
       <c r="I12" s="1">
-        <v>2629.465</v>
+        <v>2624.1767</v>
       </c>
       <c r="J12" s="1">
-        <v>122015.7112</v>
+        <v>121531.2739</v>
       </c>
       <c r="K12" s="1">
-        <v>100786.8406</v>
+        <v>100785.2688</v>
       </c>
       <c r="L12" s="1">
-        <v>9.3599</v>
+        <v>9.3787</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11314.7325</v>
+        <v>-11312.0884</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1116</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.0976</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E13" s="1">
-        <v>11788.4568</v>
+        <v>11764.4804</v>
       </c>
       <c r="F13" s="1">
-        <v>1019.5657</v>
+        <v>1017.2924</v>
       </c>
       <c r="H13" s="1">
-        <v>130823.5786</v>
+        <v>130296.3261</v>
       </c>
       <c r="I13" s="1">
-        <v>1314.7325</v>
+        <v>1312.0884</v>
       </c>
       <c r="J13" s="1">
-        <v>132138.3111</v>
+        <v>131608.4145</v>
       </c>
       <c r="K13" s="1">
-        <v>112101.5731</v>
+        <v>112097.3571</v>
       </c>
       <c r="L13" s="1">
-        <v>9.509399999999999</v>
+        <v>9.528499999999999</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11314.7325</v>
+        <v>-11312.0884</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0009</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>10.8505</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E14" s="1">
-        <v>12808.0226</v>
+        <v>12781.7728</v>
       </c>
       <c r="F14" s="1">
-        <v>-12808.0226</v>
+        <v>-12781.7728</v>
       </c>
       <c r="H14" s="1">
-        <v>138973.4487</v>
+        <v>138411.2615</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>138973.4487</v>
+        <v>138411.2615</v>
       </c>
       <c r="K14" s="1">
-        <v>123416.3056</v>
+        <v>123409.4455</v>
       </c>
       <c r="L14" s="1">
-        <v>9.635899999999999</v>
+        <v>9.655099999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>5304.8056</v>
+        <v>5294.0162</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>144278.2543</v>
+        <v>143705.2777</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0223</v>
+        <v>-0.0226</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>8.9413</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="F3" s="1">
-        <v>1023.8372</v>
+        <v>1030.747</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9154.435799999999</v>
+        <v>-9234.6685</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08459999999999999</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>8.9801</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2236.8112</v>
+        <v>2241.2982</v>
       </c>
       <c r="F4" s="1">
-        <v>1103.9088</v>
+        <v>1106.1316</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20086.7883</v>
+        <v>20086.7382</v>
       </c>
       <c r="I4" s="1">
-        <v>845.5642</v>
+        <v>765.3315</v>
       </c>
       <c r="J4" s="1">
-        <v>20932.3524</v>
+        <v>20852.0698</v>
       </c>
       <c r="K4" s="1">
-        <v>19154.4358</v>
+        <v>19234.6685</v>
       </c>
       <c r="L4" s="1">
-        <v>8.5633</v>
+        <v>8.581899999999999</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9913.2117</v>
+        <v>-9953.0825</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0042</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>8.6477</v>
       </c>
       <c r="C5" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D5" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3340.72</v>
+        <v>3347.4297</v>
       </c>
       <c r="F5" s="1">
-        <v>1264.1919</v>
+        <v>1247.8072</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28889.5447</v>
+        <v>28889.6576</v>
       </c>
       <c r="I5" s="1">
-        <v>932.3524</v>
+        <v>812.249</v>
       </c>
       <c r="J5" s="1">
-        <v>29821.8971</v>
+        <v>29701.9066</v>
       </c>
       <c r="K5" s="1">
-        <v>29067.6476</v>
+        <v>29187.751</v>
       </c>
       <c r="L5" s="1">
-        <v>8.701000000000001</v>
+        <v>8.7195</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>1006.565</v>
+        <v>1008.5842</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9925.787399999999</v>
+        <v>-9803.6648</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0359</v>
+        <v>-0.0373</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4604.912</v>
+        <v>4595.2369</v>
       </c>
       <c r="F6" s="1">
-        <v>620.349</v>
+        <v>640.4749</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>44063.942</v>
+        <v>43883.5932</v>
       </c>
       <c r="I6" s="1">
-        <v>1006.565</v>
+        <v>1008.5842</v>
       </c>
       <c r="J6" s="1">
-        <v>45070.507</v>
+        <v>44892.1774</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>8.686400000000001</v>
+        <v>8.704700000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-5936.058</v>
+        <v>-6140.9369</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1318</v>
+        <v>0.1307</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E7" s="1">
-        <v>5225.261</v>
+        <v>5235.7117</v>
       </c>
       <c r="F7" s="1">
-        <v>1137.8162</v>
+        <v>1140.145</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49271.0761</v>
+        <v>49270.6654</v>
       </c>
       <c r="I7" s="1">
-        <v>5070.507</v>
+        <v>4867.6472</v>
       </c>
       <c r="J7" s="1">
-        <v>54341.5831</v>
+        <v>54138.3126</v>
       </c>
       <c r="K7" s="1">
-        <v>45936.058</v>
+        <v>46140.9369</v>
       </c>
       <c r="L7" s="1">
-        <v>8.7912</v>
+        <v>8.8127</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10728.9239</v>
+        <v>-10772.4321</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0132</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D8" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E8" s="1">
-        <v>6363.0772</v>
+        <v>6375.8568</v>
       </c>
       <c r="F8" s="1">
-        <v>925.6284000000001</v>
+        <v>927.3733999999999</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>61110.357</v>
+        <v>61111.3118</v>
       </c>
       <c r="I8" s="1">
-        <v>4341.5831</v>
+        <v>4095.2151</v>
       </c>
       <c r="J8" s="1">
-        <v>65451.9401</v>
+        <v>65206.5269</v>
       </c>
       <c r="K8" s="1">
-        <v>56664.9819</v>
+        <v>56913.3691</v>
       </c>
       <c r="L8" s="1">
-        <v>8.9053</v>
+        <v>8.926399999999999</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8889.7356</v>
+        <v>-8924.392</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0173</v>
+        <v>0.0167</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.3595</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E9" s="1">
-        <v>7288.7056</v>
+        <v>7303.2301</v>
       </c>
       <c r="F9" s="1">
-        <v>433.6748</v>
+        <v>434.6118</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>75507.34600000001</v>
+        <v>75506.6355</v>
       </c>
       <c r="I9" s="1">
-        <v>5451.8475</v>
+        <v>5170.8231</v>
       </c>
       <c r="J9" s="1">
-        <v>80959.19349999999</v>
+        <v>80677.4586</v>
       </c>
       <c r="K9" s="1">
-        <v>65554.7175</v>
+        <v>65837.7611</v>
       </c>
       <c r="L9" s="1">
-        <v>8.994</v>
+        <v>9.014900000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-4492.654</v>
+        <v>-4511.4009</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.073</v>
+        <v>0.0727</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.0875</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E10" s="1">
-        <v>7722.3804</v>
+        <v>7737.8419</v>
       </c>
       <c r="F10" s="1">
-        <v>1199.5527</v>
+        <v>1201.993</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77899.5125</v>
+        <v>77899.1759</v>
       </c>
       <c r="I10" s="1">
-        <v>10959.1935</v>
+        <v>10659.4222</v>
       </c>
       <c r="J10" s="1">
-        <v>88858.70600000001</v>
+        <v>88558.5981</v>
       </c>
       <c r="K10" s="1">
-        <v>70047.3716</v>
+        <v>70349.162</v>
       </c>
       <c r="L10" s="1">
-        <v>9.0707</v>
+        <v>9.0916</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12100.4875</v>
+        <v>-12149.3846</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0231</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>10.1692</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E11" s="1">
-        <v>8921.9331</v>
+        <v>8939.8349</v>
       </c>
       <c r="F11" s="1">
-        <v>911.6821</v>
+        <v>913.4497</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90728.9219</v>
+        <v>90729.4905</v>
       </c>
       <c r="I11" s="1">
-        <v>8858.706</v>
+        <v>8510.0376</v>
       </c>
       <c r="J11" s="1">
-        <v>99587.62790000001</v>
+        <v>99239.5281</v>
       </c>
       <c r="K11" s="1">
-        <v>82147.859</v>
+        <v>82498.5466</v>
       </c>
       <c r="L11" s="1">
-        <v>9.2074</v>
+        <v>9.228199999999999</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>2085.0427</v>
+        <v>2089.2173</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7186.0354</v>
+        <v>-7218.4696</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0074</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.0872</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E12" s="1">
-        <v>9833.6152</v>
+        <v>9853.284600000001</v>
       </c>
       <c r="F12" s="1">
-        <v>87.7355</v>
+        <v>87.9716</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>109027.2588</v>
+        <v>109026.594</v>
       </c>
       <c r="I12" s="1">
-        <v>11672.6707</v>
+        <v>11291.568</v>
       </c>
       <c r="J12" s="1">
-        <v>120699.9294</v>
+        <v>120318.162</v>
       </c>
       <c r="K12" s="1">
-        <v>91418.9371</v>
+        <v>91806.2335</v>
       </c>
       <c r="L12" s="1">
-        <v>9.2966</v>
+        <v>9.317299999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-972.7412</v>
+        <v>-977.3119</v>
       </c>
       <c r="Q12" s="3">
         <v>0.1014</v>
@@ -2033,34 +2033,34 @@
         <v>11.0976</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E13" s="1">
-        <v>9921.350700000001</v>
+        <v>9941.2562</v>
       </c>
       <c r="F13" s="1">
-        <v>891.798</v>
+        <v>893.5669</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110103.182</v>
+        <v>110103.3891</v>
       </c>
       <c r="I13" s="1">
-        <v>20699.9294</v>
+        <v>20314.2561</v>
       </c>
       <c r="J13" s="1">
-        <v>130803.1115</v>
+        <v>130417.6452</v>
       </c>
       <c r="K13" s="1">
-        <v>92391.6783</v>
+        <v>92783.5454</v>
       </c>
       <c r="L13" s="1">
-        <v>9.3124</v>
+        <v>9.3332</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9896.817999999999</v>
+        <v>-9936.2853</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0008</v>
@@ -2086,49 +2086,49 @@
         <v>10.8505</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E14" s="1">
-        <v>10813.1488</v>
+        <v>10834.8231</v>
       </c>
       <c r="F14" s="1">
-        <v>-10813.1488</v>
+        <v>-10834.8231</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117328.0709</v>
+        <v>117328.1326</v>
       </c>
       <c r="I14" s="1">
-        <v>20803.1115</v>
+        <v>20377.9708</v>
       </c>
       <c r="J14" s="1">
-        <v>138131.1824</v>
+        <v>137706.1034</v>
       </c>
       <c r="K14" s="1">
-        <v>102288.4963</v>
+        <v>102719.8307</v>
       </c>
       <c r="L14" s="1">
-        <v>9.4596</v>
+        <v>9.480499999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4464.6078</v>
+        <v>4473.5653</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121792.6788</v>
+        <v>121801.6979</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.019</v>
+        <v>-0.0193</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>8.9413</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="F3" s="1">
-        <v>1029.4293</v>
+        <v>1036.3502</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9204.435799999999</v>
+        <v>-9284.8691</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08459999999999999</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>8.9801</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2242.4032</v>
+        <v>2246.9014</v>
       </c>
       <c r="F4" s="1">
-        <v>1115.0482</v>
+        <v>1117.2934</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20137.0052</v>
+        <v>20136.9551</v>
       </c>
       <c r="I4" s="1">
-        <v>795.5642</v>
+        <v>715.1309</v>
       </c>
       <c r="J4" s="1">
-        <v>20932.5694</v>
+        <v>20852.086</v>
       </c>
       <c r="K4" s="1">
-        <v>19204.4358</v>
+        <v>19284.8691</v>
       </c>
       <c r="L4" s="1">
-        <v>8.5642</v>
+        <v>8.5829</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10013.2448</v>
+        <v>-10053.5175</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0042</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>8.6477</v>
       </c>
       <c r="C5" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D5" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3357.4515</v>
+        <v>3364.1948</v>
       </c>
       <c r="F5" s="1">
-        <v>1246.8424</v>
+        <v>1230.4228</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29034.2331</v>
+        <v>29034.3466</v>
       </c>
       <c r="I5" s="1">
-        <v>782.3194</v>
+        <v>661.6134</v>
       </c>
       <c r="J5" s="1">
-        <v>29816.5525</v>
+        <v>29695.96</v>
       </c>
       <c r="K5" s="1">
-        <v>29217.6806</v>
+        <v>29338.3866</v>
       </c>
       <c r="L5" s="1">
-        <v>8.702299999999999</v>
+        <v>8.720800000000001</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>1009.0815</v>
+        <v>1011.1056</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9773.2379</v>
+        <v>-9650.507799999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0361</v>
+        <v>-0.0375</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4604.2939</v>
+        <v>4594.6176</v>
       </c>
       <c r="F6" s="1">
-        <v>673.4816</v>
+        <v>693.7137</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>44058.0281</v>
+        <v>43877.6788</v>
       </c>
       <c r="I6" s="1">
-        <v>1009.0815</v>
+        <v>1011.1056</v>
       </c>
       <c r="J6" s="1">
-        <v>45067.1095</v>
+        <v>44888.7844</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>8.6875</v>
+        <v>8.7058</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6444.4782</v>
+        <v>-6651.3967</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1319</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E7" s="1">
-        <v>5277.7755</v>
+        <v>5288.3313</v>
       </c>
       <c r="F7" s="1">
-        <v>1165.3724</v>
+        <v>1167.757</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49766.2566</v>
+        <v>49765.8417</v>
       </c>
       <c r="I7" s="1">
-        <v>4564.6033</v>
+        <v>4359.7089</v>
       </c>
       <c r="J7" s="1">
-        <v>54330.8599</v>
+        <v>54125.5506</v>
       </c>
       <c r="K7" s="1">
-        <v>46444.4782</v>
+        <v>46651.3967</v>
       </c>
       <c r="L7" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8216</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10988.7622</v>
+        <v>-11033.3183</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0134</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D8" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E8" s="1">
-        <v>6443.1479</v>
+        <v>6456.0883</v>
       </c>
       <c r="F8" s="1">
-        <v>955.804</v>
+        <v>957.6078</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61879.3481</v>
+        <v>61880.315</v>
       </c>
       <c r="I8" s="1">
-        <v>3575.8411</v>
+        <v>3326.3906</v>
       </c>
       <c r="J8" s="1">
-        <v>65455.1892</v>
+        <v>65206.7056</v>
       </c>
       <c r="K8" s="1">
-        <v>57433.2404</v>
+        <v>57684.715</v>
       </c>
       <c r="L8" s="1">
-        <v>8.9138</v>
+        <v>8.934900000000001</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9179.5414</v>
+        <v>-9215.346799999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0175</v>
+        <v>0.0169</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.3595</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E9" s="1">
-        <v>7398.9519</v>
+        <v>7413.696</v>
       </c>
       <c r="F9" s="1">
-        <v>459.9301</v>
+        <v>460.9207</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>76649.44190000001</v>
+        <v>76648.72070000001</v>
       </c>
       <c r="I9" s="1">
-        <v>4396.2997</v>
+        <v>4111.0438</v>
       </c>
       <c r="J9" s="1">
-        <v>81045.74159999999</v>
+        <v>80759.7645</v>
       </c>
       <c r="K9" s="1">
-        <v>66612.7818</v>
+        <v>66900.0618</v>
       </c>
       <c r="L9" s="1">
-        <v>9.003</v>
+        <v>9.0238</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-4764.6459</v>
+        <v>-4784.4954</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0741</v>
+        <v>0.0738</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.0875</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E10" s="1">
-        <v>7858.882</v>
+        <v>7874.6168</v>
       </c>
       <c r="F10" s="1">
-        <v>1243.5872</v>
+        <v>1246.1165</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79276.47199999999</v>
+        <v>79276.12940000001</v>
       </c>
       <c r="I10" s="1">
-        <v>9631.6538</v>
+        <v>9326.548500000001</v>
       </c>
       <c r="J10" s="1">
-        <v>88908.1257</v>
+        <v>88602.6779</v>
       </c>
       <c r="K10" s="1">
-        <v>71377.4277</v>
+        <v>71684.5572</v>
       </c>
       <c r="L10" s="1">
-        <v>9.0824</v>
+        <v>9.103199999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12544.6863</v>
+        <v>-12595.372</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0235</v>
+        <v>-0.0238</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>10.1692</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E11" s="1">
-        <v>9102.4692</v>
+        <v>9120.7333</v>
       </c>
       <c r="F11" s="1">
-        <v>955.3784000000001</v>
+        <v>957.2322</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92564.83</v>
+        <v>92565.41009999999</v>
       </c>
       <c r="I11" s="1">
-        <v>7086.9674</v>
+        <v>6731.1765</v>
       </c>
       <c r="J11" s="1">
-        <v>99651.7975</v>
+        <v>99296.5866</v>
       </c>
       <c r="K11" s="1">
-        <v>83922.114</v>
+        <v>84279.9292</v>
       </c>
       <c r="L11" s="1">
-        <v>9.2197</v>
+        <v>9.240500000000001</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>2121.8981</v>
+        <v>2126.1465</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7593.5359</v>
+        <v>-7627.6668</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0075</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.0872</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E12" s="1">
-        <v>10057.8476</v>
+        <v>10077.9655</v>
       </c>
       <c r="F12" s="1">
-        <v>115.2949</v>
+        <v>115.5876</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>111513.3682</v>
+        <v>111512.6883</v>
       </c>
       <c r="I12" s="1">
-        <v>9493.431500000001</v>
+        <v>9103.509700000001</v>
       </c>
       <c r="J12" s="1">
-        <v>121006.7997</v>
+        <v>120616.198</v>
       </c>
       <c r="K12" s="1">
-        <v>93637.5481</v>
+        <v>94033.74249999999</v>
       </c>
       <c r="L12" s="1">
-        <v>9.309900000000001</v>
+        <v>9.3306</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-1278.2972</v>
+        <v>-1284.1092</v>
       </c>
       <c r="Q12" s="3">
         <v>0.1036</v>
@@ -2801,34 +2801,34 @@
         <v>11.0976</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E13" s="1">
-        <v>10173.1425</v>
+        <v>10193.5531</v>
       </c>
       <c r="F13" s="1">
-        <v>942.3801</v>
+        <v>944.2499</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>112897.4661</v>
+        <v>112897.6784</v>
       </c>
       <c r="I13" s="1">
-        <v>18215.1343</v>
+        <v>17819.4005</v>
       </c>
       <c r="J13" s="1">
-        <v>131112.6004</v>
+        <v>130717.0788</v>
       </c>
       <c r="K13" s="1">
-        <v>94915.8453</v>
+        <v>95317.8517</v>
       </c>
       <c r="L13" s="1">
-        <v>9.33</v>
+        <v>9.3508</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10458.1576</v>
+        <v>-10499.8701</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0008</v>
@@ -2854,49 +2854,49 @@
         <v>10.8505</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E14" s="1">
-        <v>11115.5226</v>
+        <v>11137.803</v>
       </c>
       <c r="F14" s="1">
-        <v>-11115.5226</v>
+        <v>-11137.803</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120608.9781</v>
+        <v>120609.0415</v>
       </c>
       <c r="I14" s="1">
-        <v>17756.9767</v>
+        <v>17319.5304</v>
       </c>
       <c r="J14" s="1">
-        <v>138365.9548</v>
+        <v>137928.5719</v>
       </c>
       <c r="K14" s="1">
-        <v>105374.0029</v>
+        <v>105817.7218</v>
       </c>
       <c r="L14" s="1">
-        <v>9.479900000000001</v>
+        <v>9.5008</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4577.9141</v>
+        <v>4587.0989</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125186.8922</v>
+        <v>125196.1404</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0195</v>
+        <v>-0.0198</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>8.9413</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="F3" s="1">
-        <v>1035.0213</v>
+        <v>1041.9535</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9254.435799999999</v>
+        <v>-9335.0697</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08459999999999999</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>8.9801</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2247.9953</v>
+        <v>2252.5047</v>
       </c>
       <c r="F4" s="1">
-        <v>1126.2433</v>
+        <v>1128.511</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20187.2222</v>
+        <v>20187.1719</v>
       </c>
       <c r="I4" s="1">
-        <v>745.5642</v>
+        <v>664.9303</v>
       </c>
       <c r="J4" s="1">
-        <v>20932.7864</v>
+        <v>20852.1023</v>
       </c>
       <c r="K4" s="1">
-        <v>19254.4358</v>
+        <v>19335.0697</v>
       </c>
       <c r="L4" s="1">
-        <v>8.565200000000001</v>
+        <v>8.5838</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10113.7778</v>
+        <v>-10154.4545</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0042</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>8.6477</v>
       </c>
       <c r="C5" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D5" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3374.2386</v>
+        <v>3381.0156</v>
       </c>
       <c r="F5" s="1">
-        <v>1229.4352</v>
+        <v>1212.9805</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29179.4031</v>
+        <v>29179.5171</v>
       </c>
       <c r="I5" s="1">
-        <v>631.7864</v>
+        <v>510.4759</v>
       </c>
       <c r="J5" s="1">
-        <v>29811.1895</v>
+        <v>29689.993</v>
       </c>
       <c r="K5" s="1">
-        <v>29368.2136</v>
+        <v>29489.5241</v>
       </c>
       <c r="L5" s="1">
-        <v>8.7037</v>
+        <v>8.722099999999999</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>1011.5979</v>
+        <v>1013.6271</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9620.1885</v>
+        <v>-9496.8488</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0363</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4603.6737</v>
+        <v>4593.9961</v>
       </c>
       <c r="F6" s="1">
-        <v>727.1428</v>
+        <v>747.4823</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>44052.0937</v>
+        <v>43871.7439</v>
       </c>
       <c r="I6" s="1">
-        <v>1011.5979</v>
+        <v>1013.6271</v>
       </c>
       <c r="J6" s="1">
-        <v>45063.6916</v>
+        <v>44885.371</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>8.688700000000001</v>
+        <v>8.707000000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6957.9564</v>
+        <v>-7166.9348</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1319</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E7" s="1">
-        <v>5330.8165</v>
+        <v>5341.4784</v>
       </c>
       <c r="F7" s="1">
-        <v>1193.4746</v>
+        <v>1195.9161</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50266.4012</v>
+        <v>50265.9822</v>
       </c>
       <c r="I7" s="1">
-        <v>4053.6415</v>
+        <v>3846.6923</v>
       </c>
       <c r="J7" s="1">
-        <v>54320.0427</v>
+        <v>54112.6744</v>
       </c>
       <c r="K7" s="1">
-        <v>46957.9564</v>
+        <v>47166.9348</v>
       </c>
       <c r="L7" s="1">
-        <v>8.8088</v>
+        <v>8.830299999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11253.7494</v>
+        <v>-11299.3741</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0135</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D8" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E8" s="1">
-        <v>6524.2911</v>
+        <v>6537.3945</v>
       </c>
       <c r="F8" s="1">
-        <v>986.7567</v>
+        <v>988.6209</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>62658.6394</v>
+        <v>62659.6185</v>
       </c>
       <c r="I8" s="1">
-        <v>2799.8921</v>
+        <v>2547.3182</v>
       </c>
       <c r="J8" s="1">
-        <v>65458.5315</v>
+        <v>65206.9367</v>
       </c>
       <c r="K8" s="1">
-        <v>58211.7058</v>
+        <v>58466.3089</v>
       </c>
       <c r="L8" s="1">
-        <v>8.9223</v>
+        <v>8.9434</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9476.811400000001</v>
+        <v>-9513.795599999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0177</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.3595</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E9" s="1">
-        <v>7511.0478</v>
+        <v>7526.0154</v>
       </c>
       <c r="F9" s="1">
-        <v>487.0897</v>
+        <v>488.1358</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>77810.6998</v>
+        <v>77809.96769999999</v>
       </c>
       <c r="I9" s="1">
-        <v>3323.0807</v>
+        <v>3033.5227</v>
       </c>
       <c r="J9" s="1">
-        <v>81133.78049999999</v>
+        <v>80843.4904</v>
       </c>
       <c r="K9" s="1">
-        <v>67688.5172</v>
+        <v>67980.1044</v>
       </c>
       <c r="L9" s="1">
-        <v>9.011900000000001</v>
+        <v>9.0327</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5046.0058</v>
+        <v>-5066.9956</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0752</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.0875</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E10" s="1">
-        <v>7998.1375</v>
+        <v>8014.1511</v>
       </c>
       <c r="F10" s="1">
-        <v>1289.1262</v>
+        <v>1291.7474</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80681.21219999999</v>
+        <v>80680.8636</v>
       </c>
       <c r="I10" s="1">
-        <v>8277.0749</v>
+        <v>7966.5271</v>
       </c>
       <c r="J10" s="1">
-        <v>88958.2871</v>
+        <v>88647.3907</v>
       </c>
       <c r="K10" s="1">
-        <v>72734.523</v>
+        <v>73047.10000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>9.0939</v>
+        <v>9.114800000000001</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-13004.0605</v>
+        <v>-13056.5957</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0239</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>10.1692</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E11" s="1">
-        <v>9287.2637</v>
+        <v>9305.8986</v>
       </c>
       <c r="F11" s="1">
-        <v>1000.8735</v>
+        <v>1002.8172</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94444.04210000001</v>
+        <v>94444.63400000001</v>
       </c>
       <c r="I11" s="1">
-        <v>5273.0144</v>
+        <v>4909.9314</v>
       </c>
       <c r="J11" s="1">
-        <v>99717.0566</v>
+        <v>99354.56540000001</v>
       </c>
       <c r="K11" s="1">
-        <v>85738.5834</v>
+        <v>86103.6957</v>
       </c>
       <c r="L11" s="1">
-        <v>9.2318</v>
+        <v>9.252599999999999</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>2159.4971</v>
+        <v>2163.8208</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8018.5862</v>
+        <v>-8054.4853</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0077</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.0872</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E12" s="1">
-        <v>10288.1373</v>
+        <v>10308.7158</v>
       </c>
       <c r="F12" s="1">
-        <v>144.4649</v>
+        <v>144.8176</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>114066.6354</v>
+        <v>114065.9399</v>
       </c>
       <c r="I12" s="1">
-        <v>7254.4283</v>
+        <v>6855.4461</v>
       </c>
       <c r="J12" s="1">
-        <v>121321.0637</v>
+        <v>120921.3861</v>
       </c>
       <c r="K12" s="1">
-        <v>95916.6667</v>
+        <v>96322.00169999999</v>
       </c>
       <c r="L12" s="1">
-        <v>9.323</v>
+        <v>9.3437</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-1601.7113</v>
+        <v>-1608.8366</v>
       </c>
       <c r="Q12" s="3">
         <v>0.1058</v>
@@ -3569,34 +3569,34 @@
         <v>11.0976</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E13" s="1">
-        <v>10432.6022</v>
+        <v>10453.5334</v>
       </c>
       <c r="F13" s="1">
-        <v>995.5472</v>
+        <v>997.523</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>115776.8457</v>
+        <v>115777.0634</v>
       </c>
       <c r="I13" s="1">
-        <v>15652.717</v>
+        <v>15246.6095</v>
       </c>
       <c r="J13" s="1">
-        <v>131429.5628</v>
+        <v>131023.6729</v>
       </c>
       <c r="K13" s="1">
-        <v>97518.378</v>
+        <v>97930.83839999999</v>
       </c>
       <c r="L13" s="1">
-        <v>9.3475</v>
+        <v>9.3682</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11048.1844</v>
+        <v>-11092.2567</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0008</v>
@@ -3622,49 +3622,49 @@
         <v>10.8505</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E14" s="1">
-        <v>11428.1493</v>
+        <v>11451.0564</v>
       </c>
       <c r="F14" s="1">
-        <v>-11428.1493</v>
+        <v>-11451.0564</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124001.1344</v>
+        <v>124001.1996</v>
       </c>
       <c r="I14" s="1">
-        <v>14604.5326</v>
+        <v>14154.3528</v>
       </c>
       <c r="J14" s="1">
-        <v>138605.6671</v>
+        <v>138155.5524</v>
       </c>
       <c r="K14" s="1">
-        <v>108566.5624</v>
+        <v>109023.0951</v>
       </c>
       <c r="L14" s="1">
-        <v>9.4999</v>
+        <v>9.520799999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4694.671</v>
+        <v>4704.09</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128695.8054</v>
+        <v>128705.2896</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.02</v>
+        <v>-0.0203</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>8.244199999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2277</v>
       </c>
       <c r="D2" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>8.9413</v>
       </c>
       <c r="C3" s="1">
-        <v>8.9413</v>
+        <v>8.923400000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9413</v>
+        <v>8.959199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1212.974</v>
+        <v>1210.5512</v>
       </c>
       <c r="F3" s="1">
-        <v>1040.6133</v>
+        <v>1047.5567</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10845.5642</v>
+        <v>10802.2323</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.244199999999999</v>
+        <v>8.2607</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9304.435799999999</v>
+        <v>-9385.2703</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08459999999999999</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>8.9801</v>
       </c>
       <c r="C4" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2253.5873</v>
+        <v>2258.1079</v>
       </c>
       <c r="F4" s="1">
-        <v>1137.4941</v>
+        <v>1139.7843</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20237.4392</v>
+        <v>20237.3888</v>
       </c>
       <c r="I4" s="1">
-        <v>695.5642</v>
+        <v>614.7297</v>
       </c>
       <c r="J4" s="1">
-        <v>20933.0033</v>
+        <v>20852.1185</v>
       </c>
       <c r="K4" s="1">
-        <v>19304.4358</v>
+        <v>19385.2703</v>
       </c>
       <c r="L4" s="1">
-        <v>8.5661</v>
+        <v>8.5847</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10214.8108</v>
+        <v>-10255.8935</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0042</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>8.6477</v>
       </c>
       <c r="C5" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D5" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>3391.0814</v>
+        <v>3397.8922</v>
       </c>
       <c r="F5" s="1">
-        <v>1211.97</v>
+        <v>1195.4802</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29325.0545</v>
+        <v>29325.1691</v>
       </c>
       <c r="I5" s="1">
-        <v>480.7533</v>
+        <v>358.8363</v>
       </c>
       <c r="J5" s="1">
-        <v>29805.8079</v>
+        <v>29684.0054</v>
       </c>
       <c r="K5" s="1">
-        <v>29519.2467</v>
+        <v>29641.1637</v>
       </c>
       <c r="L5" s="1">
-        <v>8.705</v>
+        <v>8.7234</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>1014.1143</v>
+        <v>1016.1486</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9466.6391</v>
+        <v>-9342.6877</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0364</v>
+        <v>-0.0379</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>4603.0514</v>
+        <v>4593.3725</v>
       </c>
       <c r="F6" s="1">
-        <v>781.3365</v>
+        <v>801.7844</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>44046.1389</v>
+        <v>43865.7884</v>
       </c>
       <c r="I6" s="1">
-        <v>1014.1143</v>
+        <v>1016.1486</v>
       </c>
       <c r="J6" s="1">
-        <v>45060.2531</v>
+        <v>44881.937</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>8.6899</v>
+        <v>8.7082</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7476.5304</v>
+        <v>-7687.5892</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.132</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E7" s="1">
-        <v>5384.3879</v>
+        <v>5395.1569</v>
       </c>
       <c r="F7" s="1">
-        <v>1222.131</v>
+        <v>1224.6305</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50771.5471</v>
+        <v>50771.1239</v>
       </c>
       <c r="I7" s="1">
-        <v>3537.5839</v>
+        <v>3328.5594</v>
       </c>
       <c r="J7" s="1">
-        <v>54309.131</v>
+        <v>54099.6833</v>
       </c>
       <c r="K7" s="1">
-        <v>47476.5304</v>
+        <v>47687.5892</v>
       </c>
       <c r="L7" s="1">
-        <v>8.817399999999999</v>
+        <v>8.839</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11523.9621</v>
+        <v>-11570.6764</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0136</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D8" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E8" s="1">
-        <v>6606.5189</v>
+        <v>6619.7874</v>
       </c>
       <c r="F8" s="1">
-        <v>1018.5024</v>
+        <v>1020.4286</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63448.3468</v>
+        <v>63449.3382</v>
       </c>
       <c r="I8" s="1">
-        <v>2013.6217</v>
+        <v>1757.883</v>
       </c>
       <c r="J8" s="1">
-        <v>65461.9686</v>
+        <v>65207.2212</v>
       </c>
       <c r="K8" s="1">
-        <v>59000.4925</v>
+        <v>59258.2656</v>
       </c>
       <c r="L8" s="1">
-        <v>8.9306</v>
+        <v>8.951700000000001</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9781.696900000001</v>
+        <v>-9819.8902</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0179</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.3595</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E9" s="1">
-        <v>7625.0213</v>
+        <v>7640.216</v>
       </c>
       <c r="F9" s="1">
-        <v>515.1777</v>
+        <v>516.2809999999999</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>78991.408</v>
+        <v>78990.6648</v>
       </c>
       <c r="I9" s="1">
-        <v>2231.9248</v>
+        <v>1937.9928</v>
       </c>
       <c r="J9" s="1">
-        <v>81223.3328</v>
+        <v>80928.6575</v>
       </c>
       <c r="K9" s="1">
-        <v>68782.18949999999</v>
+        <v>69078.15579999999</v>
       </c>
       <c r="L9" s="1">
-        <v>9.0206</v>
+        <v>9.041399999999999</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5336.983</v>
+        <v>-5359.152</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.07630000000000001</v>
+        <v>0.0761</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.0875</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E10" s="1">
-        <v>8140.199</v>
+        <v>8156.497</v>
       </c>
       <c r="F10" s="1">
-        <v>1336.2141</v>
+        <v>1338.9305</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82114.25689999999</v>
+        <v>82113.90210000001</v>
       </c>
       <c r="I10" s="1">
-        <v>6894.9418</v>
+        <v>6578.8408</v>
       </c>
       <c r="J10" s="1">
-        <v>89009.19869999999</v>
+        <v>88692.743</v>
       </c>
       <c r="K10" s="1">
-        <v>74119.1725</v>
+        <v>74437.3077</v>
       </c>
       <c r="L10" s="1">
-        <v>9.1053</v>
+        <v>9.126099999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-13479.06</v>
+        <v>-13533.5076</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0243</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>10.1692</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E11" s="1">
-        <v>9476.4131</v>
+        <v>9495.4275</v>
       </c>
       <c r="F11" s="1">
-        <v>1048.2316</v>
+        <v>1050.2688</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96367.5399</v>
+        <v>96368.14380000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3415.8818</v>
+        <v>3045.3332</v>
       </c>
       <c r="J11" s="1">
-        <v>99783.42170000001</v>
+        <v>99413.477</v>
       </c>
       <c r="K11" s="1">
-        <v>87598.2325</v>
+        <v>87970.8153</v>
       </c>
       <c r="L11" s="1">
-        <v>9.2438</v>
+        <v>9.2645</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>2197.8537</v>
+        <v>2202.2542</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8461.8231</v>
+        <v>-8499.5646</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0078</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.0872</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D12" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E12" s="1">
-        <v>10524.6447</v>
+        <v>10545.6963</v>
       </c>
       <c r="F12" s="1">
-        <v>175.3179</v>
+        <v>175.7339</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116688.8405</v>
+        <v>116688.129</v>
       </c>
       <c r="I12" s="1">
-        <v>4954.0587</v>
+        <v>4545.7686</v>
       </c>
       <c r="J12" s="1">
-        <v>121642.8992</v>
+        <v>121233.8976</v>
       </c>
       <c r="K12" s="1">
-        <v>98257.9093</v>
+        <v>98672.6341</v>
       </c>
       <c r="L12" s="1">
-        <v>9.336</v>
+        <v>9.3567</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-1943.7844</v>
+        <v>-1952.2985</v>
       </c>
       <c r="Q12" s="3">
         <v>0.108</v>
@@ -4337,34 +4337,34 @@
         <v>11.0976</v>
       </c>
       <c r="C13" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D13" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E13" s="1">
-        <v>10699.9626</v>
+        <v>10721.4302</v>
       </c>
       <c r="F13" s="1">
-        <v>1051.4174</v>
+        <v>1053.5047</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>118743.9045</v>
+        <v>118744.1278</v>
       </c>
       <c r="I13" s="1">
-        <v>13010.2743</v>
+        <v>12593.4701</v>
       </c>
       <c r="J13" s="1">
-        <v>131754.1788</v>
+        <v>131337.5979</v>
       </c>
       <c r="K13" s="1">
-        <v>100201.6937</v>
+        <v>100624.9326</v>
       </c>
       <c r="L13" s="1">
-        <v>9.364699999999999</v>
+        <v>9.385400000000001</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11668.2098</v>
+        <v>-11714.7621</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0008</v>
@@ -4390,49 +4390,49 @@
         <v>10.8505</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E14" s="1">
-        <v>11751.38</v>
+        <v>11774.9349</v>
       </c>
       <c r="F14" s="1">
-        <v>-11751.38</v>
+        <v>-11774.9349</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127508.3483</v>
+        <v>127508.4154</v>
       </c>
       <c r="I14" s="1">
-        <v>11342.0645</v>
+        <v>10878.708</v>
       </c>
       <c r="J14" s="1">
-        <v>138850.4128</v>
+        <v>138387.1233</v>
       </c>
       <c r="K14" s="1">
-        <v>111869.9035</v>
+        <v>112339.6947</v>
       </c>
       <c r="L14" s="1">
-        <v>9.5197</v>
+        <v>9.5406</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4814.9832</v>
+        <v>4824.6436</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132323.3315</v>
+        <v>132333.0589</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0205</v>
+        <v>-0.0209</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4453,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>9.635899999999999</v>
+        <v>9.655099999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>9.4596</v>
+        <v>9.480499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>9.479900000000001</v>
+        <v>9.5008</v>
       </c>
       <c r="F3" s="1">
-        <v>9.4999</v>
+        <v>9.520799999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>9.5197</v>
+        <v>9.5406</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.2918</v>
       </c>
       <c r="C4" s="3">
-        <v>0.339</v>
+        <v>0.3265</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3291</v>
+        <v>0.3181</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3317</v>
+        <v>0.3205</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3342</v>
+        <v>0.323</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3369</v>
+        <v>0.3255</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1701</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1922</v>
+        <v>0.1912</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1839</v>
+        <v>0.183</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1854</v>
+        <v>0.1846</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1869</v>
+        <v>0.1861</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1885</v>
+        <v>0.1878</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.5959</v>
       </c>
       <c r="C6" s="4">
-        <v>1.6576</v>
+        <v>1.6012</v>
       </c>
       <c r="D6" s="4">
-        <v>1.6789</v>
+        <v>1.6272</v>
       </c>
       <c r="E6" s="4">
-        <v>1.6792</v>
+        <v>1.6268</v>
       </c>
       <c r="F6" s="4">
-        <v>1.6793</v>
+        <v>1.6261</v>
       </c>
       <c r="G6" s="4">
-        <v>1.6792</v>
+        <v>1.6253</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3979</v>
+        <v>0.388</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4134</v>
+        <v>0.4038</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4121</v>
+        <v>0.4024</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4107</v>
+        <v>0.4009</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4094</v>
+        <v>0.3995</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8721.111199999999</v>
+        <v>8703.4617</v>
       </c>
       <c r="D8" s="1">
-        <v>7556.2156</v>
+        <v>7571.3668</v>
       </c>
       <c r="E8" s="1">
-        <v>7708.8937</v>
+        <v>7724.3511</v>
       </c>
       <c r="F8" s="1">
-        <v>7865.766</v>
+        <v>7881.5379</v>
       </c>
       <c r="G8" s="1">
-        <v>8026.9511</v>
+        <v>8043.0463</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P3_KFSDIV.xlsx
+++ b/output/1Y_P3_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>9391.5376</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.121</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3486</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.3114</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2751</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
